--- a/audit-rapport/audit.xlsx
+++ b/audit-rapport/audit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV WEB\P4_pereiraviegas_ruialexandre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateurs\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E696FFD3-4DEB-4486-8728-B06CBCD75AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EE1794-C499-4DD1-8C87-F0FC8641FD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,23 +92,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Mettre à la place du point le nom du site + une mini description comme ce qu'il y a déjà inscrit dans le footer en petit :
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>La chouette agence - Agence web basée à Lyon</t>
-    </r>
-  </si>
-  <si>
     <t>Meta keywords</t>
   </si>
   <si>
@@ -140,14 +123,20 @@
     <t>Images avec du texte.</t>
   </si>
   <si>
-    <t>Balises ALT mal renséigné.</t>
-  </si>
-  <si>
-    <t>Les balises ALT sont bien présentes mais expliquent mal les images, c'est une succession de mots qui n'ont pas vraiment de sens et donc plus difficile à comprendre pour les personnes utilisant un logiciel de lecture à voix haute.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mettre dans les balises ALT des </t>
+    <t>Attribut "defer" présent sur seulement 1  script.</t>
+  </si>
+  <si>
+    <t>Le chargement des scripts charge en même temps que la page web et donc ralentit la vitesse de chargement de celle-ci.</t>
+  </si>
+  <si>
+    <t>Les div "keywords" situé dans le header et le footer avec du texte invisibles sont détectés par Google et peuvent mettre en péril le référencement du site étant considéré comme du Black Hat.</t>
+  </si>
+  <si>
+    <t>Blacklinks mal utilisés.</t>
+  </si>
+  <si>
+    <r>
+      <t>Les scripts n'ont pas besoin de se charger en meme temps que la page web, de plus, cela impact la vitesse de chargement de la page, ajouter l'attribut "</t>
     </r>
     <r>
       <rPr>
@@ -158,22 +147,163 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">mini-phrases expliquant ce que représente l'image </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>et non pas des successions de mots</t>
+      <t>defer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" sur tous les scripts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il faut mettre en place </t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Google Analytics</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sur le site afin de connaitre le trafic de son site internet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajouter des balises </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>section</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>footer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>… afin de permette aux personnes utilisant un logiciel de lecture à voix haute de pouvoir accéder pleinement au site.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supprimer ces div et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">disposer intelligemment ces mots dans le contenu de la page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sinon Google détectera ça comme du Black Hat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -181,15 +311,6 @@
     </r>
   </si>
   <si>
-    <t>Attribut "defer" présent sur seulement 1  script.</t>
-  </si>
-  <si>
-    <t>Le chargement des scripts charge en même temps que la page web et donc ralentit la vitesse de chargement de celle-ci.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remplacer ces images par des </t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -199,7 +320,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>paragraphes de texte</t>
+      <t>Supprimer</t>
     </r>
     <r>
       <rPr>
@@ -209,21 +330,203 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> les 3 listes de blacklinks puisqu'ils n'ont aucun rapport avec le site.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;figcaption&gt; non utilisé.</t>
+  </si>
+  <si>
+    <t>Cours OpenClassroom - Optimisez le contenu de vos pages</t>
+  </si>
+  <si>
+    <t>La balise &lt;title&gt; doit contenir un titre, ici il n'y a qu'un point, le titre est ce qui s'affiche dans les résulats de la recherche Google, il est donc important d'en mettre un (max 70 caractères).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remplacer les balises &lt;p&gt; par </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;figcaption&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> qui seront dans une "div" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;figure&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ici mettre lang=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"fr"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pour indiquer que le site est écrit en français.</t>
+    </r>
+  </si>
+  <si>
+    <t>SEMJuice - Balise Meta Keywords</t>
+  </si>
+  <si>
+    <t>Sur les 4 images expliquant les projets réalisés, quand nous cliquons dessus, un texte en dessous de l'image est affiché sous la forme d'un paragraphe de texte dans le fichier HTML alors qu'il serait mieux d'utiliser les balises figure et figcaption.</t>
+  </si>
+  <si>
+    <t>Cours OpenClassroom - Analysez vos KPIs grâce à Google Analytics</t>
+  </si>
+  <si>
+    <t>W3.org - Déclarer la langue en HTML</t>
+  </si>
+  <si>
+    <t>Cours OpenClassroom - Structurez votre page</t>
+  </si>
+  <si>
+    <t>Stylistme - Comment choisir les meilleures URL pour optimiser le SEO d’un site</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modifer le nom du fichier HTML en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>contact</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.html, le titre en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contact - La chouette agence</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et le nom donné pour la redirection à la page de contact dans l'entête de l'accueil en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contact</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
-    <t>Black Hat situé dans le header et le footer, mots invisibles.</t>
-  </si>
-  <si>
-    <t>Les div "keywords" situé dans le header et le footer avec du texte invisibles sont détectés par Google et peuvent mettre en péril le référencement du site étant considéré comme du Black Hat.</t>
-  </si>
-  <si>
-    <t>Blacklinks mal utilisés.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Écrire entre les guillemets vides de content un bref descriptif de la page web comme: </t>
+    <t>Affde - SEO à faire et à ne pas faire avec les tailles de police et les couleurs</t>
+  </si>
+  <si>
+    <t>MDN - &lt;figcaption&gt; : l'élément de légende d'une figure</t>
+  </si>
+  <si>
+    <t>Check-list pour l'accessibilité</t>
+  </si>
+  <si>
+    <t>La couleur</t>
+  </si>
+  <si>
+    <t>La visibilité</t>
+  </si>
+  <si>
+    <t>Le focus</t>
+  </si>
+  <si>
+    <t>Les équivalents textuels</t>
+  </si>
+  <si>
+    <t>La gestion des états</t>
+  </si>
+  <si>
+    <t>L'orientation</t>
+  </si>
+  <si>
+    <t>Directives générales</t>
+  </si>
+  <si>
+    <t>Aucun problème.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Écrire entre les guillemets vides de content un bref descriptif de la page, exemple pour la page d'accueil : </t>
     </r>
     <r>
       <rPr>
@@ -238,8 +541,21 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Les scripts n'ont pas besoin de se charger en meme temps que la page web, de plus, cela impact la vitesse de chargement de la page, ajouter l'attribut "</t>
+    <t>La meta description est vide dans les 2 pages alors qu'elle est aussi importante que le titre, elle s'affiche en dessous du titre et elle doit contenir un bref descriptif de la page (max 130-160 caractères).</t>
+  </si>
+  <si>
+    <t>Attribut "alt" mal renseigné et
+attribut "aria-label" non présent.</t>
+  </si>
+  <si>
+    <t>MDN Web Docs - Utiliser l'attribut aria-label</t>
+  </si>
+  <si>
+    <t>L'attribut "alt" est présent mais explique mal les images, c'est une succession de mots qui n'ont pas vraiment de sens et donc plus difficile à comprendre pour les personnes utilisant un logiciel de lecture à voix haute. Attribut "aria-label" manquant pour les liens redirigeant vers les réseaux sociaux.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mettre dans les attributs "alt" des </t>
     </r>
     <r>
       <rPr>
@@ -250,7 +566,59 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>defer</t>
+      <t>mini-phrases expliquant ce que représente l'image</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ajouter des attributs "aria-label"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> aux liens redirigeant vers les réseaux sociaux.</t>
+    </r>
+  </si>
+  <si>
+    <t>MDN Web Docs - Check-list pour l'accessibilité mobile</t>
+  </si>
+  <si>
+    <t>Des images de texte sont présente sur l'accueil ce qui augmente le temps de chargement et impact le SEO. Les images sont plus compliquées à adapter au format mobile.
+Pour les personnes nécessitant un logiciel de lecture à voix haute il est donc impossible de pouvoir lire ces textes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remplacer ces images par du </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>texte brut</t>
     </r>
     <r>
       <rPr>
@@ -260,12 +628,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>" sur tous les scripts.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il faut mettre en place </t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Le nom du fichier HTML, le titre de la page et le nom donné pour la redirection à la page de contact dans l'entête de l'accueil est "page2". C'est incompréhensible pour les visiteurs et les moteurs de recherches.</t>
+  </si>
+  <si>
+    <t>Marketingtracer - Improve website speed: defer JavaScript</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mettre à la place du point, un titre plus explicite sur la page web, par exemple : </t>
     </r>
     <r>
       <rPr>
@@ -276,7 +650,90 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Google Analytics</t>
+      <t>La chouette agence - Agence web basée à Lyon</t>
+    </r>
+  </si>
+  <si>
+    <t>Semrush - Backlinks toxiques : comment les détecter et les supprimer</t>
+  </si>
+  <si>
+    <t>Les partenaires et annuaires dans le footer n'ont, pour la plupart, aucun rapport avec le site, cela peut ressembler à du Black Hat et peut donc diminuer drastiquement le positionnement de la page sur les moteurs de recherche</t>
+  </si>
+  <si>
+    <t>SEO.fr - Définition du Black Hat SEO</t>
+  </si>
+  <si>
+    <t>Images trop lourde.</t>
+  </si>
+  <si>
+    <t>Une image lourde impact la vitesse de chargement de la page. Il faut donc faire attention à son format et la compresser si besoin. Google a créé le format webp dans le but de conserver la même qualité d'image tout en réduisant drastiquement le poids.</t>
+  </si>
+  <si>
+    <t>CecileWeb - Format WebP : quelle utilité pour votre site internet ?</t>
+  </si>
+  <si>
+    <t>Paragraphes à 11 px.</t>
+  </si>
+  <si>
+    <t>Les paragraphes sont à 11px il est donc difficile pour tout le monde de lire le texte affiché à l'écran. La valeur minimale reccomandée est de 12 px.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Agrandir les paragraphes à 14 px </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pour une meilleure lisibilité.</t>
+    </r>
+  </si>
+  <si>
+    <t>Black Hat situé dans le header et le footer (mots invisibles).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Changer le format des images .jpg et .bmp en .webp</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>les compresser</t>
     </r>
     <r>
       <rPr>
@@ -286,455 +743,35 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> sur le site afin de connaitre le trafic de son site internet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ajouter des balises </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>header</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>main</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>section</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>footer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>… afin de permette aux personnes utilisant un logiciel de lecture à voix haute de pouvoir accéder pleinement au site.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Supprimer ces div et </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">disposer intelligemment ces mots dans le contenu de la page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sinon Google détectera ça comme du Black Hat</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Supprimer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> les 3 listes de blacklinks puisqu'ils n'ont aucun rapport avec le site.</t>
-    </r>
-  </si>
-  <si>
-    <t>Certains textes de la page sont trop petits et sont donc plus difficiles à lire pour tout le monde.</t>
-  </si>
-  <si>
-    <t>Les 2 principals images sont lourdes. Cela impact la vitesse de chargement de la page.</t>
-  </si>
-  <si>
-    <t>2 images trop lourdes.</t>
-  </si>
-  <si>
-    <t>Certains textes sont trop petits.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Agrandir les textes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>trop petits car lisibles pour personne.</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;figcaption&gt; non utilisé.</t>
-  </si>
-  <si>
-    <t>Cours OpenClassroom - Optimisez le contenu de vos pages</t>
-  </si>
-  <si>
-    <t>La meta description est vide alors qu'elle est aussi importante que le titre, elle s'affiche en dessous du titre et elle doit contenir un bref descriptif de la page (max 132-160 caractères).</t>
-  </si>
-  <si>
-    <t>La balise &lt;title&gt; doit contenir un titre, ici il n'y a qu'un point, le titre est ce qui s'affiche dans les résulats de la recherche Google, il est donc important d'en mettre un (max 70 caractères).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remplacer les balises &lt;p&gt; par </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;figcaption&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> qui seront dans une "div" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;figure&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ici mettre lang=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"fr"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pour indiquer que le site est écrit en français.</t>
-    </r>
-  </si>
-  <si>
-    <t>SEMJuice - Balise Meta Keywords</t>
-  </si>
-  <si>
-    <t>Sur les 4 images expliquant les projets réalisés, quand nous cliquons dessus, un texte en dessous de l'image est affiché sous la forme d'un paragraphe de texte dans le fichier HTML alors qu'il serait mieux d'utiliser les balises figure et figcaption.</t>
-  </si>
-  <si>
-    <t>alsacréations - Les attributs async et defer pour &lt;script&gt;</t>
-  </si>
-  <si>
-    <t>Cours OpenClassroom - Analysez vos KPIs grâce à Google Analytics</t>
-  </si>
-  <si>
-    <t>W3.org - Déclarer la langue en HTML</t>
-  </si>
-  <si>
-    <t>Cours OpenClassroom - Structurez votre page</t>
-  </si>
-  <si>
-    <t>Le nom du fichier HTML, le titre du site et le nom donné pour la redirection à la page de contact dans l'entête de l'accueil est "page2". C'est incompréhensible pour les visiteurs.</t>
-  </si>
-  <si>
-    <t>Stylistme - Comment choisir les meilleures URL pour optimiser le SEO d’un site</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Modifer le nom du fichier HTML en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>contact</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.html, le titre en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Contact - La chouette agence</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> et le nom donné pour la redirection à la page de contact dans l'entête de l'accueil en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Contact</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Redimensionner/compresser les images</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> afin qu'elle soit moins lourde et donc plus rapide à charger.</t>
-    </r>
-  </si>
-  <si>
-    <t>3 octets - Optimiser la taille et le poids des images pour le SEO et l’expérience utilisateur</t>
-  </si>
-  <si>
-    <t>Redacteur - SEO : 6 règles à respecter pour la balise Alt de vos images</t>
-  </si>
-  <si>
-    <t>Cours OpenClassroom - Analysez le fonctionnement de Google</t>
-  </si>
-  <si>
-    <t>Affde - SEO à faire et à ne pas faire avec les tailles de police et les couleurs</t>
-  </si>
-  <si>
-    <t>MDN - &lt;figcaption&gt; : l'élément de légende d'une figure</t>
-  </si>
-  <si>
-    <t>Les partenaires et annuaires dans le footer n'ont, pour la plupart, aucun rapport avec votre site, cela peut ressembler à du Black Hat, ils sont mal disposés et peuvent diminuer drastiquement le positionnement sur les moteurs de recherche.</t>
-  </si>
-  <si>
-    <t>Josselin Leydier - LA NOTION DE BACKLINKS TOXIQUES</t>
-  </si>
-  <si>
-    <t>Des paragraphes sur le site sont intégré avec des images ce qui augmente le temps de chargement de la page et impact le SEO. Les images sont plus compliquées à adapter au format mobile.
-Pour les personnes nécessitant un logiciel de lecture à voix haute il est donc impossible de pouvoir lire ces textes.</t>
-  </si>
-  <si>
-    <t>Check-list pour l'accessibilité</t>
-  </si>
-  <si>
-    <t>La couleur</t>
-  </si>
-  <si>
-    <t>La visibilité</t>
-  </si>
-  <si>
-    <t>Le focus</t>
-  </si>
-  <si>
-    <t>Les équivalents textuels</t>
-  </si>
-  <si>
-    <t>La gestion des états</t>
-  </si>
-  <si>
-    <t>L'orientation</t>
-  </si>
-  <si>
-    <t>Directives générales</t>
-  </si>
-  <si>
-    <t>Le ratio de contraste est beaucoup trop faible avec l'orange, j'ai donc décidé de faire quelque chose de simple avec du noir, du gris et du blanc.</t>
-  </si>
-  <si>
-    <t>Aucun problème.</t>
-  </si>
-  <si>
-    <t>MDN - Check-list pour l'accessibilité mobile</t>
-  </si>
-  <si>
-    <t>Un bouton dans la page de contact pour remonter vers le haut est en opacity 0, je l'ai donc fait apparaitre,
-des z-index inutiles supprimés, btn-down non présent dans le fichier HTML supprimé du fichier css et
-les 2 lignes de texte minuscule dans le header apparaissant comme des lignes sur et sous le logo sont aussi supprimées.</t>
-  </si>
-  <si>
-    <t>Les balises alt sont mieux écrites et les images de texte ont bien été remplacé par du texte.</t>
-  </si>
-  <si>
-    <t>Bouton "Contactez notre équipe" agrandit et réorganisation des balises h1, h2 et h3.</t>
+      <t xml:space="preserve"> si besoin afin qu'elles soit plus rapide à charger.
+Les images au format .png présentes sur le site étant très légères, aucun changement n'est requis.</t>
+    </r>
+  </si>
+  <si>
+    <t>- Le ratio de contraste était beaucoup trop faible avec la couleur orange, j'ai donc décidé de faire quelque chose de simple avec du noir et du blanc.</t>
+  </si>
+  <si>
+    <t>- Bouton "Contactez notre équipe" agrandit et stylisé.
+- Réorganisation des balises h1, h2 et h3.</t>
+  </si>
+  <si>
+    <t>- Un bouton dans la page de contact pour remonter vers le haut est en opacity 0, je l'ai donc fait apparaitre.
+- Des z-index inutiles supprimés.
+- Un problème au niveau des liens des fichiers css bootstrap, font-awesome et et-lint qui avait leurs liens vers un fichier css minifié qui n'existe pas,  ce qui
+  rendait la page de contact "cassé" visuellement. Pareil pour les 3 premiers liens de script qui rendait le bouton du menu dans l'en-tête en version moblie et
+  les messages d'erreur des cases à remplir non fonctionnelle. J'ai donc enlevé "mini" des liens et tout est rentré dans l'ordre.</t>
+  </si>
+  <si>
+    <t>- Les balises alt sont mieux écrites, ajout des balises aria-label pour les liens + le nom du site à côté du logo dans le footer.
+- Les images de texte ont bien été remplacé par du texte.
+- Il manquait l'attribut "for" pour les balises &lt;label&gt; et l'attribut "href" pour le bouton qui permet de remonter la page de contact, ceci a été réglé.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -778,13 +815,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -813,15 +843,14 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="36"/>
+      <sz val="20"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FF0070C0"/>
+      <sz val="36"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -946,15 +975,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -978,38 +1004,50 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1229,7 +1267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1241,316 +1281,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1558,7 +1598,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1566,7 +1606,7 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1574,7 +1614,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -1583,98 +1623,98 @@
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="18" t="s">
+      <c r="A22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -2681,16 +2721,17 @@
     <hyperlink ref="F6" r:id="rId5" xr:uid="{D10AB6F0-9765-4C6F-B9A9-669521460B0D}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{8B41FD2B-801D-4C1A-9AE7-A4E55D7CB946}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{94E84C9D-5930-490F-AA13-2E0D01A05978}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{437929E7-E769-4767-854B-67F6C43B53FD}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{E6F6CED4-C650-42E0-BB0D-CBDFE3F7B30D}"/>
-    <hyperlink ref="F11" r:id="rId10" location=":~:text=En%20effet%2C%20le%20texte%20alternatif,aussi%20au%20r%C3%A9f%C3%A9rencement%20par%20image." xr:uid="{0CE786DD-3BA3-40C0-ACF6-489DF325DC97}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{B2FCC93B-82B7-4C88-B1AB-4180D6ADC836}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{2FE60F23-CD38-47FA-8E1B-F229423AE759}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{D0526FCF-47B6-43B0-A8D0-A17D6B4FF793}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{5F016AF0-198A-4620-8035-463EF8166C7F}"/>
-    <hyperlink ref="F10" r:id="rId15" location="le_focus" xr:uid="{988A97AC-FC58-4C5A-9945-587E24C818D5}"/>
+    <hyperlink ref="F9" r:id="rId8" location="Comment_choisir_les_meilleures_URL_7_regles_de_base_pour_vos_pages_internet" xr:uid="{437929E7-E769-4767-854B-67F6C43B53FD}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{D0526FCF-47B6-43B0-A8D0-A17D6B4FF793}"/>
+    <hyperlink ref="F16" r:id="rId10" xr:uid="{5F016AF0-198A-4620-8035-463EF8166C7F}"/>
+    <hyperlink ref="F10" r:id="rId11" location="les_%C3%A9quivalents_textuels" xr:uid="{988A97AC-FC58-4C5A-9945-587E24C818D5}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{E3D39129-FAC3-454D-AC87-59FB95536A43}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{2FE60F23-CD38-47FA-8E1B-F229423AE759}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{3CD5297D-29F9-47AA-AF46-67D1745F38CF}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{4F8EA35A-54B4-4982-8681-6F10B174731F}"/>
+    <hyperlink ref="A21:F21" r:id="rId16" display="Check-list pour l'accessibilité" xr:uid="{5F014848-4751-4B93-8EC7-6AAB0FD5BDE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId16"/>
+  <pageSetup orientation="landscape" r:id="rId17"/>
 </worksheet>
 </file>